--- a/MapApi.xlsx
+++ b/MapApi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maks\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Java\Projects\SpringEvernote\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>GET</t>
   </si>
@@ -38,36 +38,6 @@
     <t>DELETE</t>
   </si>
   <si>
-    <t>User/{id}</t>
-  </si>
-  <si>
-    <t>User/{id}/notebook/{id}</t>
-  </si>
-  <si>
-    <t>User/{id}/notebooks</t>
-  </si>
-  <si>
-    <t>Users</t>
-  </si>
-  <si>
-    <t>User/{id}/notebook/{id}/notes</t>
-  </si>
-  <si>
-    <t>User/{id}/notebook/{id}/note/{id}</t>
-  </si>
-  <si>
-    <t>User/{id}/marks</t>
-  </si>
-  <si>
-    <t>User/{id}/notebook/{id}/note/{id}/mark/{id}</t>
-  </si>
-  <si>
-    <t>User/{id}/ notes</t>
-  </si>
-  <si>
-    <t>User/{id}/ note/{id}</t>
-  </si>
-  <si>
     <t>UserController</t>
   </si>
   <si>
@@ -77,10 +47,52 @@
     <t>NoteController</t>
   </si>
   <si>
-    <t>User/{id}/notebook/{id}/note/{id}/marks</t>
-  </si>
-  <si>
     <t>MarkController</t>
+  </si>
+  <si>
+    <t>/notebook/{id}</t>
+  </si>
+  <si>
+    <t>/user/{id}/marks</t>
+  </si>
+  <si>
+    <t>/note/{id}/marks</t>
+  </si>
+  <si>
+    <t>/mark/{id}</t>
+  </si>
+  <si>
+    <t>/mark</t>
+  </si>
+  <si>
+    <t>/user/{id}/notebooks</t>
+  </si>
+  <si>
+    <t>/note/{id}</t>
+  </si>
+  <si>
+    <t>/note</t>
+  </si>
+  <si>
+    <t>user/{id}/ note</t>
+  </si>
+  <si>
+    <t>/users</t>
+  </si>
+  <si>
+    <t>/user/{id}</t>
+  </si>
+  <si>
+    <t>/user</t>
+  </si>
+  <si>
+    <t>/user/{id}/ notes</t>
+  </si>
+  <si>
+    <t>/notebook/{id}/notes</t>
+  </si>
+  <si>
+    <t>/notebook</t>
   </si>
 </sst>
 </file>
@@ -572,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,7 +614,7 @@
     </row>
     <row r="2" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -610,7 +622,7 @@
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -618,21 +630,21 @@
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -640,7 +652,7 @@
     </row>
     <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -648,21 +660,21 @@
     </row>
     <row r="7" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -670,7 +682,7 @@
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -680,13 +692,13 @@
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -694,21 +706,21 @@
     </row>
     <row r="12" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -716,7 +728,7 @@
     </row>
     <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -724,7 +736,7 @@
     </row>
     <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -738,12 +750,13 @@
         <v>11</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/MapApi.xlsx
+++ b/MapApi.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>GET</t>
   </si>
@@ -74,9 +74,6 @@
     <t>/note</t>
   </si>
   <si>
-    <t>user/{id}/ note</t>
-  </si>
-  <si>
     <t>/users</t>
   </si>
   <si>
@@ -86,13 +83,13 @@
     <t>/user</t>
   </si>
   <si>
-    <t>/user/{id}/ notes</t>
-  </si>
-  <si>
     <t>/notebook/{id}/notes</t>
   </si>
   <si>
     <t>/notebook</t>
+  </si>
+  <si>
+    <t>/mark/{id}/ notes</t>
   </si>
 </sst>
 </file>
@@ -243,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -270,6 +267,7 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,7 +585,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +620,7 @@
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -630,16 +628,16 @@
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -666,7 +664,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>8</v>
@@ -682,80 +680,73 @@
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
